--- a/contratos/contratos-4-2019.xlsx
+++ b/contratos/contratos-4-2019.xlsx
@@ -1036,7 +1036,7 @@
     <t>GIANERA MARIO RAMON</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1102,7 +1102,7 @@
     <t>UGON VICTOR FRANCO ALI</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BANCHIK AUTOMOTORES S.A.</t>
@@ -1303,7 +1303,7 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1774,7 +1774,7 @@
     <t>PREVISORA URUGUAY</t>
   </si>
   <si>
-    <t>CLERICE, MIGUEL ANGEL</t>
+    <t>CLERICE. MIGUEL ANGEL</t>
   </si>
   <si>
     <t>FLECHA BUS</t>
@@ -1870,727 +1870,727 @@
     <t>89</t>
   </si>
   <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>211.200,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>184.800,00</t>
-  </si>
-  <si>
-    <t>306.000,00</t>
-  </si>
-  <si>
-    <t>14.600,00</t>
-  </si>
-  <si>
-    <t>1.375.500,00</t>
-  </si>
-  <si>
-    <t>1.681.000,00</t>
-  </si>
-  <si>
-    <t>1.443,00</t>
-  </si>
-  <si>
-    <t>1.868,00</t>
-  </si>
-  <si>
-    <t>1.428,85</t>
-  </si>
-  <si>
-    <t>2.525,00</t>
-  </si>
-  <si>
-    <t>4.840,00</t>
-  </si>
-  <si>
-    <t>1.529.144,00</t>
-  </si>
-  <si>
-    <t>12.045,00</t>
-  </si>
-  <si>
-    <t>521.200,00</t>
-  </si>
-  <si>
-    <t>8.027,10</t>
-  </si>
-  <si>
-    <t>3.870,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>17.280,00</t>
-  </si>
-  <si>
-    <t>154.054,00</t>
-  </si>
-  <si>
-    <t>737.780,48</t>
-  </si>
-  <si>
-    <t>116.528,00</t>
-  </si>
-  <si>
-    <t>418.282,66</t>
-  </si>
-  <si>
-    <t>161.970,78</t>
-  </si>
-  <si>
-    <t>79.799,36</t>
-  </si>
-  <si>
-    <t>13.115,00</t>
-  </si>
-  <si>
-    <t>26.249,04</t>
-  </si>
-  <si>
-    <t>82.020,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>9.315,60</t>
-  </si>
-  <si>
-    <t>79.459,56</t>
-  </si>
-  <si>
-    <t>21.377,00</t>
-  </si>
-  <si>
-    <t>33.499,88</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>21.330,00</t>
-  </si>
-  <si>
-    <t>27.200,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>406.755,48</t>
-  </si>
-  <si>
-    <t>367.876,85</t>
-  </si>
-  <si>
-    <t>29.832,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>16.378,98</t>
-  </si>
-  <si>
-    <t>4.555,16</t>
-  </si>
-  <si>
-    <t>954.699,00</t>
-  </si>
-  <si>
-    <t>5.980,00</t>
-  </si>
-  <si>
-    <t>77.681,95</t>
-  </si>
-  <si>
-    <t>1.576,61</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>18.701,39</t>
-  </si>
-  <si>
-    <t>101.064,40</t>
-  </si>
-  <si>
-    <t>11.360,00</t>
-  </si>
-  <si>
-    <t>4.067,00</t>
-  </si>
-  <si>
-    <t>8.752,00</t>
-  </si>
-  <si>
-    <t>13.232,50</t>
-  </si>
-  <si>
-    <t>22.586,89</t>
-  </si>
-  <si>
-    <t>95.156,21</t>
-  </si>
-  <si>
-    <t>2.862,67</t>
-  </si>
-  <si>
-    <t>13.001,00</t>
-  </si>
-  <si>
-    <t>8.925,00</t>
-  </si>
-  <si>
-    <t>79.893,00</t>
-  </si>
-  <si>
-    <t>11.263,90</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>4.365,64</t>
-  </si>
-  <si>
-    <t>668.109,00</t>
-  </si>
-  <si>
-    <t>26.278,24</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>48.850,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>26.800,00</t>
-  </si>
-  <si>
-    <t>232.000,00</t>
-  </si>
-  <si>
-    <t>168.880,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>18.132,00</t>
-  </si>
-  <si>
-    <t>15.640,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>212.475,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>26.500,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>28.990,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>7.779,00</t>
-  </si>
-  <si>
-    <t>47.360,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>11.135,00</t>
-  </si>
-  <si>
-    <t>5.959,00</t>
-  </si>
-  <si>
-    <t>34.619,45</t>
-  </si>
-  <si>
-    <t>37,48</t>
-  </si>
-  <si>
-    <t>58.497,91</t>
-  </si>
-  <si>
-    <t>36.558,14</t>
-  </si>
-  <si>
-    <t>22.218,62</t>
-  </si>
-  <si>
-    <t>11.120,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>493,38</t>
-  </si>
-  <si>
-    <t>93.367,00</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>64.888,00</t>
-  </si>
-  <si>
-    <t>37.974,00</t>
-  </si>
-  <si>
-    <t>15.456,22</t>
-  </si>
-  <si>
-    <t>189.338,90</t>
-  </si>
-  <si>
-    <t>13.160,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>40.657,00</t>
-  </si>
-  <si>
-    <t>15.570,00</t>
-  </si>
-  <si>
-    <t>2.275,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>12.180,00</t>
-  </si>
-  <si>
-    <t>1.375,00</t>
-  </si>
-  <si>
-    <t>25.340,00</t>
-  </si>
-  <si>
-    <t>64.225,00</t>
-  </si>
-  <si>
-    <t>26.720,00</t>
-  </si>
-  <si>
-    <t>5.077,00</t>
-  </si>
-  <si>
-    <t>19.540,22</t>
-  </si>
-  <si>
-    <t>9.520,00</t>
-  </si>
-  <si>
-    <t>549,80</t>
-  </si>
-  <si>
-    <t>2.905,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>704,00</t>
-  </si>
-  <si>
-    <t>2.760,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>1.905.828,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>59.800,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>67.000,00</t>
-  </si>
-  <si>
-    <t>9.084,33</t>
-  </si>
-  <si>
-    <t>1.971,00</t>
-  </si>
-  <si>
-    <t>21.264,00</t>
-  </si>
-  <si>
-    <t>433,81</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>3.876,87</t>
-  </si>
-  <si>
-    <t>11.100,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>6.720,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>28.500,00</t>
-  </si>
-  <si>
-    <t>41.733,20</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>51.000,00</t>
-  </si>
-  <si>
-    <t>82.557,10</t>
-  </si>
-  <si>
-    <t>74.860,00</t>
-  </si>
-  <si>
-    <t>71.999,98</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>5.562,73</t>
-  </si>
-  <si>
-    <t>14.050,00</t>
-  </si>
-  <si>
-    <t>6.655,00</t>
-  </si>
-  <si>
-    <t>19.070,00</t>
-  </si>
-  <si>
-    <t>21.157,00</t>
-  </si>
-  <si>
-    <t>6.482,00</t>
-  </si>
-  <si>
-    <t>27.050,00</t>
-  </si>
-  <si>
-    <t>2.914,00</t>
-  </si>
-  <si>
-    <t>1.468,74</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>95.414,20</t>
-  </si>
-  <si>
-    <t>982,00</t>
-  </si>
-  <si>
-    <t>9.869,07</t>
-  </si>
-  <si>
-    <t>15.312,00</t>
-  </si>
-  <si>
-    <t>37.193,00</t>
-  </si>
-  <si>
-    <t>24.907,98</t>
-  </si>
-  <si>
-    <t>24.025,00</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>1.463,04</t>
-  </si>
-  <si>
-    <t>3.159,00</t>
-  </si>
-  <si>
-    <t>3.470,00</t>
-  </si>
-  <si>
-    <t>1.265.146,41</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>7.114,80</t>
-  </si>
-  <si>
-    <t>74.000,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>5.227.021,55</t>
-  </si>
-  <si>
-    <t>216.000,00</t>
-  </si>
-  <si>
-    <t>240.000,00</t>
-  </si>
-  <si>
-    <t>2.425.627,36</t>
-  </si>
-  <si>
-    <t>7.472.405,19</t>
-  </si>
-  <si>
-    <t>241.000,00</t>
-  </si>
-  <si>
-    <t>250.200,00</t>
-  </si>
-  <si>
-    <t>242.200,00</t>
-  </si>
-  <si>
-    <t>243.700,00</t>
-  </si>
-  <si>
-    <t>245.500,00</t>
-  </si>
-  <si>
-    <t>451.000,00</t>
-  </si>
-  <si>
-    <t>573.450,00</t>
-  </si>
-  <si>
-    <t>513.000,00</t>
-  </si>
-  <si>
-    <t>284.650,00</t>
-  </si>
-  <si>
-    <t>482.000,00</t>
-  </si>
-  <si>
-    <t>370.400,00</t>
-  </si>
-  <si>
-    <t>507.800,00</t>
-  </si>
-  <si>
-    <t>685.300,00</t>
-  </si>
-  <si>
-    <t>708.200,00</t>
-  </si>
-  <si>
-    <t>247.850,00</t>
-  </si>
-  <si>
-    <t>311.587,11</t>
-  </si>
-  <si>
-    <t>176.300,00</t>
-  </si>
-  <si>
-    <t>262.350,00</t>
-  </si>
-  <si>
-    <t>10.963.063,74</t>
-  </si>
-  <si>
-    <t>49.760,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>74.200,00</t>
-  </si>
-  <si>
-    <t>92.820,00</t>
-  </si>
-  <si>
-    <t>25.540,00</t>
-  </si>
-  <si>
-    <t>76.800,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>454.000,00</t>
-  </si>
-  <si>
-    <t>11.610,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>211200.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>184800.00</t>
+  </si>
+  <si>
+    <t>306000.00</t>
+  </si>
+  <si>
+    <t>14600.00</t>
+  </si>
+  <si>
+    <t>1375500.00</t>
+  </si>
+  <si>
+    <t>1681000.00</t>
+  </si>
+  <si>
+    <t>1443.00</t>
+  </si>
+  <si>
+    <t>1868.00</t>
+  </si>
+  <si>
+    <t>1428.85</t>
+  </si>
+  <si>
+    <t>2525.00</t>
+  </si>
+  <si>
+    <t>4840.00</t>
+  </si>
+  <si>
+    <t>1529144.00</t>
+  </si>
+  <si>
+    <t>12045.00</t>
+  </si>
+  <si>
+    <t>521200.00</t>
+  </si>
+  <si>
+    <t>8027.10</t>
+  </si>
+  <si>
+    <t>3870.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>17280.00</t>
+  </si>
+  <si>
+    <t>154054.00</t>
+  </si>
+  <si>
+    <t>737780.48</t>
+  </si>
+  <si>
+    <t>116528.00</t>
+  </si>
+  <si>
+    <t>418282.66</t>
+  </si>
+  <si>
+    <t>161970.78</t>
+  </si>
+  <si>
+    <t>79799.36</t>
+  </si>
+  <si>
+    <t>13115.00</t>
+  </si>
+  <si>
+    <t>26249.04</t>
+  </si>
+  <si>
+    <t>82020.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>9315.60</t>
+  </si>
+  <si>
+    <t>79459.56</t>
+  </si>
+  <si>
+    <t>21377.00</t>
+  </si>
+  <si>
+    <t>33499.88</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>21330.00</t>
+  </si>
+  <si>
+    <t>27200.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>406755.48</t>
+  </si>
+  <si>
+    <t>367876.85</t>
+  </si>
+  <si>
+    <t>29832.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>16378.98</t>
+  </si>
+  <si>
+    <t>4555.16</t>
+  </si>
+  <si>
+    <t>954699.00</t>
+  </si>
+  <si>
+    <t>5980.00</t>
+  </si>
+  <si>
+    <t>77681.95</t>
+  </si>
+  <si>
+    <t>1576.61</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>18701.39</t>
+  </si>
+  <si>
+    <t>101064.40</t>
+  </si>
+  <si>
+    <t>11360.00</t>
+  </si>
+  <si>
+    <t>4067.00</t>
+  </si>
+  <si>
+    <t>8752.00</t>
+  </si>
+  <si>
+    <t>13232.50</t>
+  </si>
+  <si>
+    <t>22586.89</t>
+  </si>
+  <si>
+    <t>95156.21</t>
+  </si>
+  <si>
+    <t>2862.67</t>
+  </si>
+  <si>
+    <t>13001.00</t>
+  </si>
+  <si>
+    <t>8925.00</t>
+  </si>
+  <si>
+    <t>79893.00</t>
+  </si>
+  <si>
+    <t>11263.90</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>4365.64</t>
+  </si>
+  <si>
+    <t>668109.00</t>
+  </si>
+  <si>
+    <t>26278.24</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>48850.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>26800.00</t>
+  </si>
+  <si>
+    <t>232000.00</t>
+  </si>
+  <si>
+    <t>168880.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>18132.00</t>
+  </si>
+  <si>
+    <t>15640.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>212475.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>28990.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>7779.00</t>
+  </si>
+  <si>
+    <t>47360.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>11135.00</t>
+  </si>
+  <si>
+    <t>5959.00</t>
+  </si>
+  <si>
+    <t>34619.45</t>
+  </si>
+  <si>
+    <t>37.48</t>
+  </si>
+  <si>
+    <t>58497.91</t>
+  </si>
+  <si>
+    <t>36558.14</t>
+  </si>
+  <si>
+    <t>22218.62</t>
+  </si>
+  <si>
+    <t>11120.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>493.38</t>
+  </si>
+  <si>
+    <t>93367.00</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>64888.00</t>
+  </si>
+  <si>
+    <t>37974.00</t>
+  </si>
+  <si>
+    <t>15456.22</t>
+  </si>
+  <si>
+    <t>189338.90</t>
+  </si>
+  <si>
+    <t>13160.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>40657.00</t>
+  </si>
+  <si>
+    <t>15570.00</t>
+  </si>
+  <si>
+    <t>2275.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>12180.00</t>
+  </si>
+  <si>
+    <t>1375.00</t>
+  </si>
+  <si>
+    <t>25340.00</t>
+  </si>
+  <si>
+    <t>64225.00</t>
+  </si>
+  <si>
+    <t>26720.00</t>
+  </si>
+  <si>
+    <t>5077.00</t>
+  </si>
+  <si>
+    <t>19540.22</t>
+  </si>
+  <si>
+    <t>9520.00</t>
+  </si>
+  <si>
+    <t>549.80</t>
+  </si>
+  <si>
+    <t>2905.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>704.00</t>
+  </si>
+  <si>
+    <t>2760.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>1905828.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>59800.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>67000.00</t>
+  </si>
+  <si>
+    <t>9084.33</t>
+  </si>
+  <si>
+    <t>1971.00</t>
+  </si>
+  <si>
+    <t>21264.00</t>
+  </si>
+  <si>
+    <t>433.81</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>3876.87</t>
+  </si>
+  <si>
+    <t>11100.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>6720.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>28500.00</t>
+  </si>
+  <si>
+    <t>41733.20</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>51000.00</t>
+  </si>
+  <si>
+    <t>82557.10</t>
+  </si>
+  <si>
+    <t>74860.00</t>
+  </si>
+  <si>
+    <t>71999.98</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>5562.73</t>
+  </si>
+  <si>
+    <t>14050.00</t>
+  </si>
+  <si>
+    <t>6655.00</t>
+  </si>
+  <si>
+    <t>19070.00</t>
+  </si>
+  <si>
+    <t>21157.00</t>
+  </si>
+  <si>
+    <t>6482.00</t>
+  </si>
+  <si>
+    <t>27050.00</t>
+  </si>
+  <si>
+    <t>2914.00</t>
+  </si>
+  <si>
+    <t>1468.74</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>95414.20</t>
+  </si>
+  <si>
+    <t>982.00</t>
+  </si>
+  <si>
+    <t>9869.07</t>
+  </si>
+  <si>
+    <t>15312.00</t>
+  </si>
+  <si>
+    <t>37193.00</t>
+  </si>
+  <si>
+    <t>24907.98</t>
+  </si>
+  <si>
+    <t>24025.00</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>1463.04</t>
+  </si>
+  <si>
+    <t>3159.00</t>
+  </si>
+  <si>
+    <t>3470.00</t>
+  </si>
+  <si>
+    <t>1265146.41</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>7114.80</t>
+  </si>
+  <si>
+    <t>74000.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>5227021.55</t>
+  </si>
+  <si>
+    <t>216000.00</t>
+  </si>
+  <si>
+    <t>240000.00</t>
+  </si>
+  <si>
+    <t>2425627.36</t>
+  </si>
+  <si>
+    <t>7472405.19</t>
+  </si>
+  <si>
+    <t>241000.00</t>
+  </si>
+  <si>
+    <t>250200.00</t>
+  </si>
+  <si>
+    <t>242200.00</t>
+  </si>
+  <si>
+    <t>243700.00</t>
+  </si>
+  <si>
+    <t>245500.00</t>
+  </si>
+  <si>
+    <t>451000.00</t>
+  </si>
+  <si>
+    <t>573450.00</t>
+  </si>
+  <si>
+    <t>513000.00</t>
+  </si>
+  <si>
+    <t>284650.00</t>
+  </si>
+  <si>
+    <t>482000.00</t>
+  </si>
+  <si>
+    <t>370400.00</t>
+  </si>
+  <si>
+    <t>507800.00</t>
+  </si>
+  <si>
+    <t>685300.00</t>
+  </si>
+  <si>
+    <t>708200.00</t>
+  </si>
+  <si>
+    <t>247850.00</t>
+  </si>
+  <si>
+    <t>311587.11</t>
+  </si>
+  <si>
+    <t>176300.00</t>
+  </si>
+  <si>
+    <t>262350.00</t>
+  </si>
+  <si>
+    <t>10963063.74</t>
+  </si>
+  <si>
+    <t>49760.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>74200.00</t>
+  </si>
+  <si>
+    <t>92820.00</t>
+  </si>
+  <si>
+    <t>25540.00</t>
+  </si>
+  <si>
+    <t>76800.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>454000.00</t>
+  </si>
+  <si>
+    <t>11610.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
   </si>
 </sst>
 </file>
